--- a/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
+++ b/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Sfera_4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B316E48-53FE-4FDA-B6D8-772A1D6770D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB20D24-8276-481B-A597-9544FDEAA837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F4CA1F3C-0BA7-435E-BB88-9578C1AAF535}"/>
   </bookViews>
@@ -225,7 +225,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -292,6 +298,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94471B3E-C91F-4F5C-97DA-62C59CE1D1FE}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -653,97 +663,124 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">

--- a/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
+++ b/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Sfera_4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB20D24-8276-481B-A597-9544FDEAA837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E322C71-01B6-4FA9-BB24-F600BCFF63F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F4CA1F3C-0BA7-435E-BB88-9578C1AAF535}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -783,35 +783,44 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">

--- a/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
+++ b/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Sfera_4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E322C71-01B6-4FA9-BB24-F600BCFF63F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FD4AF1-D0F5-4989-8970-71853EE114F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F4CA1F3C-0BA7-435E-BB88-9578C1AAF535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4CA1F3C-0BA7-435E-BB88-9578C1AAF535}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94471B3E-C91F-4F5C-97DA-62C59CE1D1FE}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -823,35 +823,44 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -885,66 +894,84 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">

--- a/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
+++ b/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Sfera_4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FD4AF1-D0F5-4989-8970-71853EE114F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEEDF88-DE16-4BC5-8E93-D178FAAE469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4CA1F3C-0BA7-435E-BB88-9578C1AAF535}"/>
   </bookViews>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94471B3E-C91F-4F5C-97DA-62C59CE1D1FE}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -974,35 +974,44 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">

--- a/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
+++ b/docs/tp/Sfera_4.0/Analizzato TP NR CAMPAGNE COMMERCIALI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Sfera_4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEEDF88-DE16-4BC5-8E93-D178FAAE469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F9A0C-1BA8-401B-AC44-A8EE95A3D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4CA1F3C-0BA7-435E-BB88-9578C1AAF535}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
